--- a/RMM_Task06_01/generated.xlsx
+++ b/RMM_Task06_01/generated.xlsx
@@ -375,6 +375,36 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="381000" cy="381000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -701,7 +731,7 @@
       </c>
       <c r="B3" s="25" t="inlineStr">
         <is>
-          <t>Мударисов Р.Р</t>
+          <t>FDSF</t>
         </is>
       </c>
       <c r="F3" s="23" t="n"/>
@@ -714,7 +744,7 @@
       </c>
       <c r="B4" s="27" t="inlineStr">
         <is>
-          <t>Аниматор</t>
+          <t>SDF</t>
         </is>
       </c>
       <c r="F4" s="23" t="n"/>
@@ -731,7 +761,7 @@
       </c>
       <c r="B6" s="30" t="inlineStr">
         <is>
-          <t>Нуми</t>
+          <t>SDF</t>
         </is>
       </c>
       <c r="F6" s="23" t="n"/>
@@ -748,7 +778,7 @@
       </c>
       <c r="B8" s="31" t="inlineStr">
         <is>
-          <t>@авп</t>
+          <t>SDF</t>
         </is>
       </c>
       <c r="D8" s="32" t="n"/>
@@ -763,7 +793,7 @@
       </c>
       <c r="B9" s="31" t="inlineStr">
         <is>
-          <t>@апр</t>
+          <t>SDF</t>
         </is>
       </c>
       <c r="D9" s="32" t="n"/>
@@ -797,5 +827,6 @@
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>